--- a/biology/Écologie/Gestion_conservatoire/Gestion_conservatoire.xlsx
+++ b/biology/Écologie/Gestion_conservatoire/Gestion_conservatoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gestion conservatoire est un mode de gestion des milieux naturels ou semi-naturels qui a pour but de rétablir la biodiversité sur les sites profondément dégradés par les activités humaines.
 C'est le mode de gestion qu'on privilégie, avec souvent une dimension de gestion restauratoire, dans les réserves naturelles ou dans les milieux à renaturer.
@@ -512,7 +524,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La gestion conservatoire cherche à imiter au mieux les processus de résilience écologique et d'auto-entretien des milieux en œuvre dans la nature, et quand ils ne sont plus possible à remplacer le rôle d'espèces disparues (grands herbivores, grands prédateurs) par des techniques de gestion utilisant par exemple des moutons, bovins, chèvres, chevaux, ânes, etc.
 </t>
@@ -543,14 +557,16 @@
           <t>Modalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La gestion conservatoire peut s'appuyer sur :
 des études sur la connaissance de l'espèce et de ses habitats
 des conservatoires (faunistiques, botaniques, etc. avec le cas échéant des élevages conservatoires ou cultures in-situ et ex-situ de plantes)
 des banques de graines, des banques de gènes...
-des outils spécifiques, dont des outils informatiques de modélisation, du suivi du patrimoine génétique, SIG[1], etc.
-la réintroduction d'espèces fonctionnellement importantes comme le castor, pour sa capacité à restaurer et entretenir des zones humides (qui se rapproche alors pour partie de la gestion restauratoire) ou de grands herbivores domestiques[2] ou sauvages (pâturage naturel)[3].</t>
+des outils spécifiques, dont des outils informatiques de modélisation, du suivi du patrimoine génétique, SIG, etc.
+la réintroduction d'espèces fonctionnellement importantes comme le castor, pour sa capacité à restaurer et entretenir des zones humides (qui se rapproche alors pour partie de la gestion restauratoire) ou de grands herbivores domestiques ou sauvages (pâturage naturel).</t>
         </is>
       </c>
     </row>
